--- a/server/GAS_Schedules2022-12-05.xlsx
+++ b/server/GAS_Schedules2022-12-05.xlsx
@@ -48,31 +48,31 @@
     <t>scheduleNum_id</t>
   </si>
   <si>
-    <t>CALEB B.</t>
+    <t>OLUWATOBI A.</t>
   </si>
   <si>
     <t>Mr. Incredible</t>
   </si>
   <si>
-    <t>WENYU Z.</t>
+    <t>CALVIN A.</t>
   </si>
   <si>
     <t>Jack Jack</t>
   </si>
   <si>
-    <t>GODWIN E.</t>
+    <t>CALEB B.</t>
   </si>
   <si>
     <t>Dash Doe</t>
   </si>
   <si>
-    <t>OLUWATOBI A.</t>
+    <t>WENYU Z.</t>
   </si>
   <si>
     <t>Violet Jane</t>
   </si>
   <si>
-    <t>CALVIN A.</t>
+    <t>GODWIN E.</t>
   </si>
   <si>
     <t>M 3:00 - 4:30</t>
@@ -712,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -799,7 +799,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
@@ -857,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>41</v>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -944,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -973,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -1002,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
         <v>46</v>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
         <v>47</v>
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
         <v>48</v>
@@ -1089,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
         <v>49</v>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H23" t="s">
         <v>53</v>
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
         <v>54</v>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1447,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1505,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
@@ -1563,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>41</v>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -1650,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -1679,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
         <v>46</v>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1737,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
         <v>47</v>
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -1766,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
         <v>48</v>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
         <v>53</v>
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>36</v>
@@ -2124,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -2211,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
@@ -2269,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>41</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -2356,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
@@ -2405,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -2414,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
         <v>46</v>
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -2443,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
         <v>47</v>
@@ -2501,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
         <v>49</v>
@@ -2559,7 +2559,7 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
@@ -2588,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -2646,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
         <v>54</v>
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -2772,7 +2772,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>37</v>
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -2830,7 +2830,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
@@ -2859,7 +2859,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -2879,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -2917,7 +2917,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
@@ -2975,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>41</v>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -3062,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -3091,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -3120,7 +3120,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
         <v>46</v>
@@ -3140,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -3149,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
         <v>47</v>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -3178,7 +3178,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
         <v>48</v>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
@@ -3236,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
         <v>50</v>
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
@@ -3265,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -3294,7 +3294,7 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
@@ -3323,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H23" t="s">
         <v>53</v>
@@ -3343,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
@@ -3411,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -3420,7 +3420,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>36</v>
@@ -3469,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -3478,7 +3478,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>37</v>
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -3565,7 +3565,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -3594,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -3623,7 +3623,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -3652,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
@@ -3681,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>41</v>
@@ -3759,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -3788,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -3797,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
         <v>46</v>
@@ -3846,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -3855,7 +3855,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
         <v>47</v>
@@ -3875,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -3884,7 +3884,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
         <v>48</v>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -3913,7 +3913,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
         <v>49</v>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
@@ -3942,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
         <v>50</v>
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
@@ -3971,7 +3971,7 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -4000,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -4020,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
@@ -4029,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H23" t="s">
         <v>53</v>
@@ -4049,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
@@ -4058,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
         <v>54</v>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -4126,7 +4126,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>36</v>
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -4271,7 +4271,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -4300,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -4329,7 +4329,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
@@ -4387,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>41</v>
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -4503,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
@@ -4523,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -4561,7 +4561,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
         <v>47</v>
@@ -4581,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -4610,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -4619,7 +4619,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
         <v>49</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
@@ -4668,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -4706,7 +4706,7 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
@@ -4755,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
@@ -4764,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
         <v>54</v>
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -4832,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>36</v>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -4890,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
         <v>37</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -4948,7 +4948,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
@@ -4977,7 +4977,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -4997,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -5035,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -5064,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
@@ -5093,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>41</v>
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -5180,7 +5180,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -5200,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -5209,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -5238,7 +5238,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
         <v>46</v>
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -5267,7 +5267,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
         <v>47</v>
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -5296,7 +5296,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
         <v>48</v>
@@ -5316,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -5325,7 +5325,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
         <v>49</v>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
@@ -5354,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
         <v>50</v>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
@@ -5383,7 +5383,7 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
@@ -5403,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -5432,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
@@ -5441,7 +5441,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
         <v>53</v>
@@ -5461,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
@@ -5470,7 +5470,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
         <v>54</v>
@@ -5538,7 +5538,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>36</v>
@@ -5683,7 +5683,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -5741,7 +5741,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -5770,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
@@ -5799,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>41</v>
@@ -5877,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -5886,7 +5886,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
         <v>44</v>
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -5915,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
@@ -5935,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -5964,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -5973,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
         <v>47</v>
@@ -6031,7 +6031,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
         <v>49</v>
@@ -6060,7 +6060,7 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
         <v>50</v>
@@ -6118,7 +6118,7 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -6176,7 +6176,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>54</v>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -6293,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -6351,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -6360,7 +6360,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
@@ -6389,7 +6389,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -6409,7 +6409,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -6447,7 +6447,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -6476,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
@@ -6505,7 +6505,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>41</v>
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -6612,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -6621,7 +6621,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
@@ -6641,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -6670,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -6679,7 +6679,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
         <v>47</v>
@@ -6699,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -6708,7 +6708,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
         <v>48</v>
@@ -6728,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
@@ -6757,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
@@ -6786,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
@@ -6795,7 +6795,7 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -6844,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
         <v>34</v>
@@ -6853,7 +6853,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
         <v>53</v>
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>

--- a/server/GAS_Schedules2022-12-05.xlsx
+++ b/server/GAS_Schedules2022-12-05.xlsx
@@ -8,13 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Schedule 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Schedule 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Schedule 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Schedule 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Schedule 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Schedule 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Schedule 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Schedule 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Schedule 9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="52">
   <si>
     <t>AssignmentID</t>
   </si>
@@ -40,31 +48,31 @@
     <t>scheduleNum_id</t>
   </si>
   <si>
-    <t>OLUWATOBI A.</t>
+    <t>GODWIN E.</t>
   </si>
   <si>
     <t>Mr. Incredible</t>
   </si>
   <si>
-    <t>CALVIN A.</t>
+    <t>OLUWATOBI A.</t>
   </si>
   <si>
     <t>Jack Jack</t>
   </si>
   <si>
-    <t>CALEB B.</t>
+    <t>CALVIN A.</t>
   </si>
   <si>
     <t>Dash Doe</t>
   </si>
   <si>
-    <t>WENYU Z.</t>
+    <t>CALEB B.</t>
   </si>
   <si>
     <t>Violet Jane</t>
   </si>
   <si>
-    <t>GODWIN E.</t>
+    <t>WENYU Z.</t>
   </si>
   <si>
     <t>M 3:00 - 4:30</t>
@@ -79,25 +87,19 @@
     <t>R 4:05 - 6:05</t>
   </si>
   <si>
-    <t>R 2:00 - 4:00</t>
-  </si>
-  <si>
-    <t>W 4:00 - 5:00</t>
+    <t>M 1:00 - 2:30</t>
   </si>
   <si>
     <t>T 1:00 - 2:30</t>
   </si>
   <si>
-    <t>M 1:00 - 2:30</t>
+    <t>W 4:00 - 5:00</t>
   </si>
   <si>
     <t>M 11:00 - 12:00</t>
   </si>
   <si>
     <t>M 1:00 - 3:00</t>
-  </si>
-  <si>
-    <t>M 5:00 - 7:30</t>
   </si>
   <si>
     <t>R 10:00 - 12:00</t>
@@ -107,6 +109,9 @@
   </si>
   <si>
     <t>F 1:00 - 2:30</t>
+  </si>
+  <si>
+    <t>M 5:00 - 7:30</t>
   </si>
   <si>
     <t>T 4:00 - 5:15</t>
@@ -124,61 +129,55 @@
     <t>F 09:00 - 11:00</t>
   </si>
   <si>
-    <t>Lab 1 002</t>
+    <t>Lab 4 2</t>
   </si>
   <si>
-    <t>Lab 2 002</t>
+    <t>Lab 3 2</t>
   </si>
   <si>
-    <t>Lab 3 002</t>
+    <t>Lab 1 1</t>
   </si>
   <si>
-    <t>Lab 4 002</t>
+    <t>Lab 2 1</t>
   </si>
   <si>
-    <t>Lab 4 001</t>
+    <t>Lab 3 1</t>
   </si>
   <si>
-    <t>Lab 3 001</t>
+    <t>Thesis 1</t>
   </si>
   <si>
-    <t>Lab 2 001</t>
+    <t>Software Testing and Quality Assurance 1</t>
   </si>
   <si>
-    <t>Lab 1 001</t>
+    <t>Multimedia Communications 1</t>
   </si>
   <si>
-    <t>Thesis 001</t>
+    <t>Graduate Topics in Computer Science 1</t>
   </si>
   <si>
-    <t>Software Testing and Quality Assurance 001</t>
+    <t>Ubiquitous Computing and Internet of Things 1</t>
   </si>
   <si>
-    <t>Advanced Topics in Software Engineering 001</t>
+    <t>Advanced Topics in Software Engineering 1</t>
   </si>
   <si>
-    <t>Multimedia Communications 001</t>
+    <t>Human Computer Interaction 1</t>
   </si>
   <si>
-    <t>Graduate Topics in Computer Science 001</t>
+    <t>Advanced Multimedia Programming 1</t>
   </si>
   <si>
-    <t>Ubiquitous Computing and Internet of Things 001</t>
+    <t>Evolutionary Computing 1</t>
   </si>
   <si>
-    <t>Human Computer Interaction 001</t>
+    <t>Deep Learning 1</t>
   </si>
   <si>
-    <t>Advanced Multimedia Programming 001</t>
+    <t>Machine Learning 1</t>
   </si>
   <si>
-    <t>Evolutionary Computing 001</t>
-  </si>
-  <si>
-    <t>Deep Learning 001</t>
-  </si>
-  <si>
-    <t>Machine Learning 001</t>
+    <t>Ms. Incredible</t>
   </si>
 </sst>
 </file>
@@ -536,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,10 +587,10 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -620,7 +619,7 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -646,10 +645,10 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -678,7 +677,7 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -701,13 +700,13 @@
         <v>19</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -730,13 +729,13 @@
         <v>19</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -759,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -788,13 +787,13 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -811,19 +810,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -840,19 +839,19 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -869,19 +868,19 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -898,19 +897,19 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -927,19 +926,19 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -956,19 +955,19 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -985,19 +984,19 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1014,19 +1013,19 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1043,19 +1042,19 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1072,19 +1071,19 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1101,19 +1100,19 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1130,19 +1129,19 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1159,19 +1158,19 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1188,19 +1187,19 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1217,22 +1216,5931 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>7.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>35</v>
       </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>6.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>12.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <v>4.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>12.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+      <c r="G19">
+        <v>12.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22">
+        <v>1.5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+      <c r="G23">
+        <v>7.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
       <c r="F24">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
       <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+      <c r="G25">
+        <v>7.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>54</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>6.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>12.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <v>4.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>12.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>66</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+      <c r="G19">
+        <v>12.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22">
+        <v>1.5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+      <c r="G23">
+        <v>7.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>72</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+      <c r="G25">
+        <v>7.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>76</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>10.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>12.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>10.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+      <c r="G19">
+        <v>3.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>92</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>13.5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>93</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>94</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+      <c r="G23">
+        <v>-1.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>95</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>96</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+      <c r="G25">
+        <v>7.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>103</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>106</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>107</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>108</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>109</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>10.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>110</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>13.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>111</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>112</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>12.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>113</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>114</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>115</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20">
+        <v>3.5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>116</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>117</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22">
+        <v>10.5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>118</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+      <c r="G23">
+        <v>7.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>119</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>-1.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>120</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>121</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>122</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>124</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>126</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>127</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>129</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>130</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>131</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>132</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>133</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>10.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>134</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>13.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>135</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>136</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>12.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>137</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>138</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>139</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20">
+        <v>3.5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>140</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>141</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22">
+        <v>10.5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>142</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+      <c r="G23">
+        <v>7.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>143</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>-1.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>144</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>145</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>146</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>147</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>151</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>152</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>153</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>154</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>155</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>156</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>157</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>10.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>158</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>12.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>159</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>160</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>10.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>161</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>162</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+      <c r="G19">
+        <v>3.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>163</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>164</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>13.5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>165</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>166</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+      <c r="G23">
+        <v>-1.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>167</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>168</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+      <c r="G25">
+        <v>7.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>169</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>170</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>171</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>172</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>173</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>174</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>175</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>176</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>177</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>178</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>179</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>180</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>181</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>10.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>182</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>13.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>183</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>184</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>12.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>185</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>186</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>187</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20">
+        <v>3.5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>188</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>189</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22">
+        <v>10.5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>190</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+      <c r="G23">
+        <v>7.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>191</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>-1.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>192</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>193</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>194</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>195</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>196</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>197</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>198</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>199</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>201</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>202</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>203</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>204</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>205</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>10.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>206</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>10.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>207</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>208</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>12.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>209</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <v>12.5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>210</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>211</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>212</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>4.5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>213</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>214</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>215</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>7.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>216</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+      <c r="G25">
+        <v>-1.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
